--- a/biology/Histoire de la zoologie et de la botanique/Shōnen_Matsumura/Shōnen_Matsumura.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Shōnen_Matsumura/Shōnen_Matsumura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sh%C5%8Dnen_Matsumura</t>
+          <t>Shōnen_Matsumura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shōnen Matsumura (松村 松年, Matsumura Shōnen?), 5 mars 1872 - 7 novembre 1960, est un entomologiste japonais.
 Né à Akashi dans la préfecture de Hyōgo, Shōnen Matsumura est le créateur du premier cours d'entomologie au Japon, à l'université de Hokkaidō. ses cours sont à la fois appliqués (sur les importants insectes en sylviculture et agriculture) et théoriques. Il nomme plus de 1 200 espèces d'insectes japonais et en 1926 fonde le journal d'entomologie Insecta Matsumurana.  Matsumura est l'auteur de nombreux articles et ouvrages scientifiques dont 6,000 illustrated Insects of Japan-Empire (1931). Il meurt à Tokyo en novembre 1960.
